--- a/tests/indicators/m-r/Prs/Prs.Calc.xlsx
+++ b/tests/indicators/m-r/Prs/Prs.Calc.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{C4948744-A608-4D8E-A75B-6DF037AEE978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{33C3E536-A7DD-414C-B482-3B5BA2CE8B8A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C045ED4C-BDAF-41EE-B332-D6EC7E8CC88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PR" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10133" iterateDelta="2.0000000000000002E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -630,53 +630,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -720,6 +673,53 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -13619,18 +13619,18 @@
     <tableColumn id="1" xr3:uid="{C080F979-6D2A-4702-95C7-AA0CB594EA24}" name="index" dataDxfId="10"/>
     <tableColumn id="10" xr3:uid="{E5CD23DF-1399-4D17-BFD8-1BDB1CE33958}" name="date" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{8840121D-557D-4828-99F1-554D085DEB34}" name="base-close" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{CD75B3F0-1E09-46DF-9196-C3EA87248B44}" name="eval-close" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{A416A2FA-25A5-4930-8584-221F68E15AE7}" name="prs" dataDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{CD75B3F0-1E09-46DF-9196-C3EA87248B44}" name="eval-close" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{A416A2FA-25A5-4930-8584-221F68E15AE7}" name="prs" dataDxfId="6" dataCellStyle="Comma">
       <calculatedColumnFormula>Table6[[#This Row],[eval-close]]/Table6[[#This Row],[base-close]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5E13458-A3DD-49FE-96C9-42F5F4652C5A}" name="sma" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{35EDA823-CC9A-49DD-9248-68136B902574}" name="prs%" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{531E5BD4-911D-4352-9DC3-3AA6CF93BFF8}" name="pctB" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{EB569639-AB3B-461D-A6B4-979A72C03091}" name="pctE" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{2AB03D19-6203-48A9-B1C6-B1A57EF49907}" name="prsDirect%" dataDxfId="5" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{C5E13458-A3DD-49FE-96C9-42F5F4652C5A}" name="sma" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{35EDA823-CC9A-49DD-9248-68136B902574}" name="prs%" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{531E5BD4-911D-4352-9DC3-3AA6CF93BFF8}" name="pctB" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{EB569639-AB3B-461D-A6B4-979A72C03091}" name="pctE" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{2AB03D19-6203-48A9-B1C6-B1A57EF49907}" name="prsDirect%" dataDxfId="1" dataCellStyle="Comma">
       <calculatedColumnFormula>Table6[[#This Row],[eval-close]]/Table6[[#This Row],[base-close]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1EB9B9D8-5F0C-48E3-B744-F18762A97E9E}" name="error" dataDxfId="4">
+    <tableColumn id="11" xr3:uid="{1EB9B9D8-5F0C-48E3-B744-F18762A97E9E}" name="error" dataDxfId="0">
       <calculatedColumnFormula>(Table6[[#This Row],[prs%]]-Table6[[#This Row],[prsDirect%]])/Table6[[#This Row],[prsDirect%]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13950,10 +13950,10 @@
     <col min="5" max="5" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="2"/>
   </cols>
   <sheetData>
